--- a/agrarias-2016.xlsx
+++ b/agrarias-2016.xlsx
@@ -11684,8 +11684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3975"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3530" workbookViewId="0">
+      <selection activeCell="B3555" sqref="B3555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -35482,7 +35482,7 @@
         <v>2837</v>
       </c>
       <c r="B2974" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -35490,7 +35490,7 @@
         <v>2838</v>
       </c>
       <c r="B2975" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2976" spans="1:2">
@@ -35498,7 +35498,7 @@
         <v>2838</v>
       </c>
       <c r="B2976" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2977" spans="1:2">
@@ -40090,7 +40090,7 @@
         <v>3360</v>
       </c>
       <c r="B3550" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3551" spans="1:2">
@@ -40450,7 +40450,7 @@
         <v>3398</v>
       </c>
       <c r="B3595" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3596" spans="1:2">
@@ -40458,7 +40458,7 @@
         <v>3399</v>
       </c>
       <c r="B3596" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
@@ -40466,7 +40466,7 @@
         <v>3400</v>
       </c>
       <c r="B3597" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -40482,7 +40482,7 @@
         <v>3402</v>
       </c>
       <c r="B3599" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3600" spans="1:2">
@@ -40490,7 +40490,7 @@
         <v>3403</v>
       </c>
       <c r="B3600" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3601" spans="1:2">

--- a/agrarias-2016.xlsx
+++ b/agrarias-2016.xlsx
@@ -11684,8 +11684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3975"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3587" workbookViewId="0">
+      <selection activeCell="B3595" sqref="B3595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -35482,7 +35482,7 @@
         <v>2837</v>
       </c>
       <c r="B2974" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -35490,7 +35490,7 @@
         <v>2838</v>
       </c>
       <c r="B2975" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2976" spans="1:2">
@@ -35498,7 +35498,7 @@
         <v>2838</v>
       </c>
       <c r="B2976" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2977" spans="1:2">
@@ -40090,7 +40090,7 @@
         <v>3360</v>
       </c>
       <c r="B3550" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3551" spans="1:2">
@@ -40450,7 +40450,7 @@
         <v>3398</v>
       </c>
       <c r="B3595" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3596" spans="1:2">
@@ -40458,7 +40458,7 @@
         <v>3399</v>
       </c>
       <c r="B3596" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3597" spans="1:2">
@@ -40466,7 +40466,7 @@
         <v>3400</v>
       </c>
       <c r="B3597" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3598" spans="1:2">
@@ -40482,7 +40482,7 @@
         <v>3402</v>
       </c>
       <c r="B3599" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3600" spans="1:2">
@@ -40490,7 +40490,7 @@
         <v>3403</v>
       </c>
       <c r="B3600" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3601" spans="1:2">

--- a/agrarias-2016.xlsx
+++ b/agrarias-2016.xlsx
@@ -11684,8 +11684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3587" workbookViewId="0">
-      <selection activeCell="B3595" sqref="B3595"/>
+    <sheetView tabSelected="1" topLeftCell="A3586" workbookViewId="0">
+      <selection activeCell="A3598" sqref="A3598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
